--- a/media/BillAnalysis/836086478_Jul_03_2023_May_03_2025_Jun_03_2025.xlsx
+++ b/media/BillAnalysis/836086478_Jul_03_2023_May_03_2025_Jun_03_2025.xlsx
@@ -2311,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2573,20 +2573,20 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4595,7 +4595,7 @@
     <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
